--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Uploadchinhsachcongty.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_Uploadchinhsachcongty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4028BE5-D631-41F5-984C-4E1A21D9877B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BD58C-5374-47D9-95B0-0E17A03E2AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>for BDS</t>
   </si>
   <si>
-    <t>Test Cases for ''Xem chính sách công ty    "</t>
-  </si>
-  <si>
     <t xml:space="preserve">Có các mục chính sách  : 
 - Quy định công tác phí 
 - Chế độ lương thưởng
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>29/12/2019</t>
+  </si>
+  <si>
+    <t>Test Cases for ''Upload chính sách công ty    "</t>
   </si>
 </sst>
 </file>
@@ -1252,6 +1252,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,30 +1297,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,59 +1357,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1750,31 +1750,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1795,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>54</v>
@@ -1847,21 +1847,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1870,54 +1870,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1944,8 +1944,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1986,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="73"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="28" t="s">
@@ -2068,11 +2068,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -2088,11 +2088,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -2108,11 +2108,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>36</v>
@@ -2128,11 +2128,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>36</v>
@@ -2148,11 +2148,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>37</v>
@@ -2168,13 +2168,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>35</v>
@@ -2190,13 +2190,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>35</v>
@@ -2212,13 +2212,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>35</v>
@@ -2234,13 +2234,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>35</v>
@@ -2256,13 +2256,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>35</v>
@@ -2325,9 +2325,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2345,17 +2345,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="A1" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2391,39 +2391,39 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
+      <c r="A4" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82">
+      <c r="A5" s="89">
         <v>1</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="87" t="s">
+      <c r="B5" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="86" t="s">
         <v>86</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>87</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38" t="s">
@@ -2431,16 +2431,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="91"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
@@ -2448,113 +2448,113 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="91"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="43" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="44">
         <v>4</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="91"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="44">
         <v>6</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="91"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="44">
         <v>7</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="89">
+        <v>1</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="84" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82">
-        <v>1</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>87</v>
+      <c r="E12" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="F12" s="44">
         <v>1</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38" t="s">
@@ -2562,16 +2562,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="91"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="44">
         <v>2</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40" t="s">
@@ -2579,113 +2579,113 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="91"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="44">
         <v>3</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="43" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="91"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="44">
         <v>4</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="91"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="44">
         <v>4</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="91"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="44">
         <v>6</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="91"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="44">
         <v>7</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="89">
+        <v>1</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="84" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82">
-        <v>1</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>87</v>
+      <c r="E19" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="F19" s="44">
         <v>1</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38" t="s">
@@ -2693,16 +2693,16 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="44">
         <v>2</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40" t="s">
@@ -2710,113 +2710,113 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="44">
         <v>3</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="40"/>
       <c r="I21" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="91"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="44">
         <v>4</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="91"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="44">
         <v>4</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="91"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="44">
         <v>6</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="91"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="44">
         <v>7</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="89">
+        <v>1</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="84" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82">
-        <v>1</v>
-      </c>
-      <c r="B26" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>87</v>
+      <c r="E26" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="F26" s="44">
         <v>1</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38" t="s">
@@ -2824,16 +2824,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="91"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="44">
         <v>2</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40" t="s">
@@ -2841,113 +2841,113 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="91"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="44">
         <v>3</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="91"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="44">
         <v>4</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="40"/>
       <c r="I29" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="91"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="44">
         <v>4</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="91"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="44">
         <v>6</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="91"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="44">
         <v>7</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" s="40"/>
       <c r="I32" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="89">
+        <v>1</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="84" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82">
-        <v>1</v>
-      </c>
-      <c r="B33" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>87</v>
+      <c r="E33" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="F33" s="44">
         <v>1</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="38"/>
       <c r="I33" s="38" t="s">
@@ -2955,16 +2955,16 @@
       </c>
     </row>
     <row r="34" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="91"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="44">
         <v>2</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="40"/>
       <c r="I34" s="40" t="s">
@@ -2972,126 +2972,126 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="91"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="44">
         <v>3</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="91"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="44">
         <v>4</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="91"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="87"/>
       <c r="F37" s="44">
         <v>4</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I37" s="40" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="38" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="83"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="91"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="87"/>
       <c r="F38" s="44">
         <v>6</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="91"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="44">
         <v>7</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+    </row>
+    <row r="41" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="89">
+        <v>21</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-    </row>
-    <row r="41" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="82">
-        <v>21</v>
-      </c>
-      <c r="B41" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="87" t="s">
-        <v>60</v>
+      <c r="E41" s="84" t="s">
+        <v>59</v>
       </c>
       <c r="F41" s="44">
         <v>1</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="38" t="s">
@@ -3099,16 +3099,16 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="83"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
       <c r="F42" s="44">
         <v>2</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" s="40"/>
       <c r="I42" s="40" t="s">
@@ -3116,43 +3116,43 @@
       </c>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
       <c r="F43" s="44">
         <v>3</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="89">
+        <v>21</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="84" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="82">
-        <v>21</v>
-      </c>
-      <c r="B44" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="87" t="s">
-        <v>60</v>
+      <c r="E44" s="84" t="s">
+        <v>59</v>
       </c>
       <c r="F44" s="44">
         <v>1</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="38"/>
       <c r="I44" s="38" t="s">
@@ -3160,16 +3160,16 @@
       </c>
     </row>
     <row r="45" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="44">
         <v>2</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="40" t="s">
@@ -3177,41 +3177,41 @@
       </c>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
       <c r="F46" s="44">
         <v>3</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="96"/>
-      <c r="B47" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="95" t="s">
+      <c r="A47" s="93"/>
+      <c r="B47" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="95" t="s">
-        <v>60</v>
+      <c r="C47" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="91" t="s">
+        <v>59</v>
       </c>
       <c r="F47" s="44">
         <v>1</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="38" t="s">
@@ -3219,16 +3219,16 @@
       </c>
     </row>
     <row r="48" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="85"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
       <c r="F48" s="44">
         <v>2</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" s="40"/>
       <c r="I48" s="40" t="s">
@@ -3236,60 +3236,60 @@
       </c>
     </row>
     <row r="49" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="85"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
       <c r="F49" s="44">
         <v>3</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49" s="40"/>
       <c r="I49" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="43" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="44">
         <v>4</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H50" s="40"/>
       <c r="I50" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="82">
+      <c r="A51" s="89">
         <v>1</v>
       </c>
-      <c r="B51" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="90" t="s">
-        <v>87</v>
+      <c r="B51" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="F51" s="44">
         <v>1</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="38"/>
       <c r="I51" s="38" t="s">
@@ -3297,16 +3297,16 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="91"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="44">
         <v>2</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="40" t="s">
@@ -3314,96 +3314,96 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="91"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="87"/>
       <c r="F53" s="44">
         <v>3</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H53" s="40"/>
       <c r="I53" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="43" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="83"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="91"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="87"/>
       <c r="F54" s="44">
         <v>4</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" s="40"/>
       <c r="I54" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="43" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="83"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="91"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="87"/>
       <c r="F55" s="44">
         <v>4</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H55" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I55" s="40" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="56" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="83"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="91"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="87"/>
       <c r="F56" s="44">
         <v>6</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H56" s="40"/>
       <c r="I56" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="89">
+        <v>1</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="84" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="82">
-        <v>1</v>
-      </c>
-      <c r="B57" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="90" t="s">
-        <v>87</v>
+      <c r="E57" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="F57" s="44">
         <v>1</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="38" t="s">
@@ -3411,16 +3411,16 @@
       </c>
     </row>
     <row r="58" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="83"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="91"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="87"/>
       <c r="F58" s="44">
         <v>2</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H58" s="40"/>
       <c r="I58" s="40" t="s">
@@ -3428,94 +3428,131 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="83"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="91"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="87"/>
       <c r="F59" s="44">
         <v>3</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H59" s="40"/>
       <c r="I59" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="43" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="83"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="91"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="87"/>
       <c r="F60" s="44">
         <v>4</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="43" customFormat="1" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="83"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="91"/>
+      <c r="A61" s="90"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="87"/>
       <c r="F61" s="44">
         <v>4</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="83"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="91"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="87"/>
       <c r="F62" s="44">
         <v>6</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H62" s="40"/>
       <c r="I62" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="43" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="91"/>
+      <c r="A63" s="90"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="87"/>
       <c r="F63" s="44">
         <v>7</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
     <mergeCell ref="B57:B63"/>
     <mergeCell ref="C57:C63"/>
     <mergeCell ref="D57:D63"/>
@@ -3526,49 +3563,12 @@
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="E44:E46"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
     <mergeCell ref="D47:D50"/>
     <mergeCell ref="E47:E50"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="E5:E11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
